--- a/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T13:24:30+00:00</t>
+    <t>2025-04-11T07:24:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2529" uniqueCount="503">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T07:24:27+00:00</t>
+    <t>2025-04-30T16:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1476,8 +1476,8 @@
     <t>MedicationStatement.dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t>Range {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRangeUcum}
-Quantity {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityUcum}</t>
+    <t xml:space="preserve">Range {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRangeMedication}
+</t>
   </si>
   <si>
     <t>Precise amount of medication per dose</t>
@@ -1501,8 +1501,8 @@
     <t>MedicationStatement.dosage.doseAndRate.rate[x]</t>
   </si>
   <si>
-    <t>Ratio {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRatioUcum}
-Range {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRangeUcum}Quantity {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityUcum}</t>
+    <t xml:space="preserve">Ratio {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRatioMedication}
+</t>
   </si>
   <si>
     <t>Amount of medication per unit of time</t>
@@ -1531,42 +1531,38 @@
     <t>MedicationStatement.dosage.maxDosePerPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRatioUcum}
+    <t>Upper precise limit on medication per unit of time</t>
+  </si>
+  <si>
+    <t>Upper limit on medication per unit of time. This datatype excludes measurements whose uncertainity is described by the simpleQuantity "comparator" element.</t>
+  </si>
+  <si>
+    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example "2 tablets every 4 hours to a maximum of 8/day".</t>
+  </si>
+  <si>
+    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
+  </si>
+  <si>
+    <t>Dosage.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t>.maxDoseQuantity</t>
+  </si>
+  <si>
+    <t>RXO-23, RXE-19</t>
+  </si>
+  <si>
+    <t>MedicationStatement.dosage.maxDosePerAdministration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityMedication}
 </t>
   </si>
   <si>
-    <t>Upper precise limit on medication per unit of time</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per unit of time. This datatype excludes measurements whose uncertainity is described by the simpleQuantity "comparator" element.</t>
-  </si>
-  <si>
-    <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example "2 tablets every 4 hours to a maximum of 8/day".</t>
-  </si>
-  <si>
-    <t>The maximum total quantity of a therapeutic substance that may be administered to a subject over the period of time.  For example, 1000mg in 24 hours.</t>
-  </si>
-  <si>
-    <t>Dosage.maxDosePerPeriod</t>
-  </si>
-  <si>
-    <t>.maxDoseQuantity</t>
-  </si>
-  <si>
-    <t>RXO-23, RXE-19</t>
-  </si>
-  <si>
-    <t>MedicationStatement.dosage.maxDosePerAdministration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityUcum}
-</t>
-  </si>
-  <si>
-    <t>Precise upper limit on medication per administration with UCUM unit</t>
-  </si>
-  <si>
-    <t>Fixed upper limit on medication per administration with UCUM unit.</t>
+    <t>Precise upper limit on medication per administration with UCUM or EDQM unit</t>
+  </si>
+  <si>
+    <t>Fixed upper limit on medication per administration with UCUM or EDQM unit.</t>
   </si>
   <si>
     <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example, a body surface area related dose with a maximum amount, such as 1.5 mg/m2 (maximum 2 mg) IV over 5 – 10 minutes would have doseQuantity of 1.5 mg/m2 and maxDosePerAdministration of 2 mg.</t>
@@ -1584,7 +1580,7 @@
     <t>MedicationStatement.dosage.maxDosePerLifetime</t>
   </si>
   <si>
-    <t>A fixed measured or measurable amount with UCUM unit</t>
+    <t>A fixed measured or measurable amount with UCUM or EDQM unit</t>
   </si>
   <si>
     <t>Upper limit on medication per lifetime of the patient.</t>
@@ -1922,17 +1918,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.5859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="53.5859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.9375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.9375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.8828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="148.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1941,26 +1937,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="198.02734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="38.25" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="169.7734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.84375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="140.73046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="120.65234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="24.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9527,19 +9523,19 @@
         <v>88</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>19</v>
@@ -9588,7 +9584,7 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9606,21 +9602,21 @@
         <v>19</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>490</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9643,19 +9639,19 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>19</v>
@@ -9704,7 +9700,7 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9722,7 +9718,7 @@
         <v>19</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>19</v>
@@ -9733,10 +9729,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9759,17 +9755,17 @@
         <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>19</v>
@@ -9818,7 +9814,7 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -9836,7 +9832,7 @@
         <v>19</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>19</v>

--- a/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T16:49:21+00:00</t>
+    <t>2025-05-05T07:40:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-medication-history-medicationstatement</t>
+    <t>https://hl7.fr/ig/fhir/medication/StructureDefinition/fr-medication-history-medicationstatement</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:40:26+00:00</t>
+    <t>2025-05-05T08:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -633,7 +633,7 @@
     <t>statementSourcing</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-medication-history-sources}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/medication/StructureDefinition/fr-medication-history-sources}
 </t>
   </si>
   <si>
@@ -819,7 +819,7 @@
     <t>MedicationStatement.medication[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/fhir/fr/medication/StructureDefinition/fr-medication)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/medication/StructureDefinition/fr-medication)
 </t>
   </si>
   <si>
@@ -1476,7 +1476,7 @@
     <t>MedicationStatement.dosage.doseAndRate.dose[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Range {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRangeMedication}
+    <t xml:space="preserve">Range {https://hl7.fr/ig/fhir/medication/StructureDefinition/FrRangeMedication}
 </t>
   </si>
   <si>
@@ -1501,7 +1501,7 @@
     <t>MedicationStatement.dosage.doseAndRate.rate[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrRatioMedication}
+    <t xml:space="preserve">Ratio {https://hl7.fr/ig/fhir/medication/StructureDefinition/FrRatioMedication}
 </t>
   </si>
   <si>
@@ -1555,7 +1555,7 @@
     <t>MedicationStatement.dosage.maxDosePerAdministration</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {https://hl7.fr/fhir/fr/medication/StructureDefinition/FrSimpleQuantityMedication}
+    <t xml:space="preserve">Quantity {https://hl7.fr/ig/fhir/medication/StructureDefinition/FrSimpleQuantityMedication}
 </t>
   </si>
   <si>

--- a/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:11:38+00:00</t>
+    <t>2025-05-05T10:03:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T10:03:44+00:00</t>
+    <t>2025-07-09T18:07:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T18:07:38+00:00</t>
+    <t>2025-07-21T09:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T19:10:19+00:00</t>
+    <t>2025-07-31T09:35:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T09:35:58+00:00</t>
+    <t>2025-08-08T09:43:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-08T09:43:11+00:00</t>
+    <t>2025-08-21T08:04:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T08:04:49+00:00</t>
+    <t>2025-09-23T14:10:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -452,7 +452,7 @@
     <t>MedicationStatement.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -490,7 +490,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -517,7 +517,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -563,7 +563,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -700,7 +700,7 @@
     <t>MedicationStatement.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest|CarePlan|ServiceRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|4.0.1|CarePlan|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -722,7 +722,7 @@
     <t>MedicationStatement.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Observation)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Observation|4.0.1)
 </t>
   </si>
   <si>
@@ -792,7 +792,7 @@
     <t>A coded concept indicating the reason for the status of the statement.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-status-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-status-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -813,7 +813,7 @@
     <t>A coded concept identifying where the medication included in the MedicationStatement is expected to be consumed or administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-statement-category</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-statement-category|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
@@ -897,7 +897,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -994,7 +994,7 @@
     <t>MedicationStatement.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Encounter|4.0.1|EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1057,7 +1057,7 @@
     <t>MedicationStatement.informationSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Organization)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1082,7 +1082,7 @@
     <t>MedicationStatement.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1113,7 +1113,7 @@
     <t>A coded concept identifying why the medication is being taken.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1128,7 +1128,7 @@
     <t>MedicationStatement.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1)
 </t>
   </si>
   <si>
@@ -1269,7 +1269,7 @@
     <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes|4.0.1</t>
   </si>
   <si>
     <t>Dosage.additionalInstruction</t>
@@ -1331,7 +1331,7 @@
     <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason|4.0.1</t>
   </si>
   <si>
     <t>Dosage.asNeeded[x]</t>
@@ -1361,7 +1361,7 @@
     <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/approach-site-codes|4.0.1</t>
   </si>
   <si>
     <t>Dosage.site</t>
@@ -1388,7 +1388,7 @@
     <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/route-codes|4.0.1</t>
   </si>
   <si>
     <t>Dosage.route</t>
@@ -1418,7 +1418,7 @@
     <t>A coded concept describing the technique by which the medicine is administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/administration-method-codes|4.0.1</t>
   </si>
   <si>
     <t>Dosage.method</t>
@@ -1470,7 +1470,7 @@
     <t>The kind of dose or rate specified.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/dose-rate-type</t>
+    <t>http://hl7.org/fhir/ValueSet/dose-rate-type|4.0.1</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.type</t>
@@ -1936,7 +1936,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1951,7 +1951,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="169.7734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.84375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.28125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:10:57+00:00</t>
+    <t>2025-10-24T13:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3909,7 +3909,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>195</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>229</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>255</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>292</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>329</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>365</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>467</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>475</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>484</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>492</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>500</v>
       </c>
@@ -9851,12 +9851,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN69">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T13:47:42+00:00</t>
+    <t>2026-01-20T09:44:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
+++ b/main/ig/StructureDefinition-fr-medication-history-medicationstatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T09:44:19+00:00</t>
+    <t>2026-01-20T11:00:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
